--- a/Minutes/Group Project - GANTT.xlsx
+++ b/Minutes/Group Project - GANTT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebloom\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F0E758C8865998B6062754C6359C2A56CF728165" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F12A567-54B5-4CED-9DC1-1C6AB44DB651}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F0E758C8865998B6062754C6359C2A56CF728165" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6BEA153C-9C70-43A6-8389-5C4D0A21EFF5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
   <si>
     <t>EASTER BREAK</t>
   </si>
@@ -123,6 +123,12 @@
     <t>Conclusion</t>
   </si>
   <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>Team Organisation</t>
   </si>
   <si>
@@ -160,9 +166,6 @@
   </si>
   <si>
     <t>Competitor analysis</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>Produce wireframe</t>
@@ -1422,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE65"/>
+  <dimension ref="A1:BE66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F12" sqref="F12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1647,33 +1650,33 @@
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:11" ht="15">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>31</v>
+      <c r="C12" s="30" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="52"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="42" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="52"/>
@@ -1691,7 +1694,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="52"/>
@@ -1701,15 +1704,15 @@
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="52"/>
@@ -1720,53 +1723,53 @@
       <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>14</v>
+      <c r="C16" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="38"/>
-      <c r="E16" s="54"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="39"/>
       <c r="G16" s="53"/>
       <c r="H16" s="41"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
     </row>
-    <row r="17" spans="1:57">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>31</v>
+    <row r="17" spans="1:57" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="38"/>
-      <c r="E17" s="52"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="39"/>
       <c r="G17" s="53"/>
       <c r="H17" s="41"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
     </row>
-    <row r="18" spans="1:57" ht="15" thickBot="1">
+    <row r="18" spans="1:57">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="54"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="39"/>
       <c r="G18" s="53"/>
       <c r="H18" s="41"/>
@@ -1774,31 +1777,31 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:57" ht="15" thickBot="1">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="52"/>
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="39"/>
       <c r="G19" s="53"/>
       <c r="H19" s="41"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
     </row>
-    <row r="20" spans="1:57">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="24" t="s">
+    <row r="20" spans="1:57" ht="15" thickBot="1">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="B20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="47"/>
@@ -1814,7 +1817,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>14</v>
@@ -1829,15 +1832,15 @@
     </row>
     <row r="22" spans="1:57">
       <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>30</v>
-      </c>
       <c r="C22" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="38"/>
+        <v>14</v>
+      </c>
+      <c r="D22" s="47"/>
       <c r="E22" s="52"/>
       <c r="F22" s="39"/>
       <c r="G22" s="53"/>
@@ -1845,15 +1848,15 @@
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
     </row>
-    <row r="23" spans="1:57" ht="15" thickBot="1">
+    <row r="23" spans="1:57">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="52"/>
@@ -1864,96 +1867,96 @@
       <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:57" ht="15" thickBot="1">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
+      <c r="B24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:57" ht="15" thickBot="1">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="35"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-    </row>
-    <row r="26" spans="1:57">
-      <c r="A26" s="3" t="s">
+      <c r="E25" s="54"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+    </row>
+    <row r="26" spans="1:57" ht="15" thickBot="1">
+      <c r="A26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="35"/>
@@ -1969,12 +1972,12 @@
         <v>50</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="35"/>
       <c r="E27" s="52"/>
       <c r="F27" s="39"/>
       <c r="G27" s="53"/>
@@ -1982,15 +1985,15 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:57" ht="15" thickBot="1">
+    <row r="28" spans="1:57">
       <c r="A28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>33</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>31</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="52"/>
@@ -2001,96 +2004,49 @@
       <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:57" ht="15" thickBot="1">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30" spans="1:57">
-      <c r="A30" s="31" t="s">
+      <c r="B29" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:57" ht="15" thickBot="1">
+      <c r="A30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="1:57">
+      <c r="A31" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
-      <c r="AV30" s="4"/>
-      <c r="AW30" s="4"/>
-      <c r="AX30" s="4"/>
-      <c r="AY30" s="4"/>
-      <c r="AZ30" s="4"/>
-      <c r="BA30" s="4"/>
-      <c r="BB30" s="4"/>
-      <c r="BC30" s="4"/>
-      <c r="BD30" s="4"/>
-      <c r="BE30" s="4"/>
-    </row>
-    <row r="31" spans="1:57">
-      <c r="A31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="35"/>
@@ -2100,18 +2056,65 @@
       <c r="H31" s="41"/>
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57">
       <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="38"/>
+        <v>14</v>
+      </c>
+      <c r="D32" s="35"/>
       <c r="E32" s="52"/>
       <c r="F32" s="39"/>
       <c r="G32" s="53"/>
@@ -2124,12 +2127,12 @@
         <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="35"/>
+        <v>33</v>
+      </c>
+      <c r="D33" s="38"/>
       <c r="E33" s="52"/>
       <c r="F33" s="39"/>
       <c r="G33" s="53"/>
@@ -2142,14 +2145,14 @@
         <v>57</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="35"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="37"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="53"/>
       <c r="H34" s="41"/>
       <c r="I34" s="39"/>
@@ -2160,25 +2163,25 @@
         <v>58</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1">
-      <c r="A36" s="8" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>14</v>
@@ -2186,53 +2189,55 @@
       <c r="D36" s="38"/>
       <c r="E36" s="52"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="53"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="36"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="55"/>
+      <c r="C37" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="36"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
+      <c r="A38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="40" t="s">
+      <c r="B38" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="35"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1">
+      <c r="E38" s="54"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="35"/>
@@ -2244,51 +2249,49 @@
       <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="42" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="35"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="3" t="s">
+      <c r="E40" s="52"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" thickBot="1">
+      <c r="A41" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="40" t="s">
+      <c r="B41" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1">
-      <c r="A42" s="8" t="s">
+      <c r="F41" s="37"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="B42" s="24"/>
       <c r="C42" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="35"/>
-      <c r="E42" s="52"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="39"/>
       <c r="G42" s="53"/>
       <c r="H42" s="41"/>
@@ -2296,29 +2299,31 @@
       <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickBot="1">
+      <c r="A44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="8" t="s">
+      <c r="B44" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="35"/>
@@ -2329,7 +2334,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="8" t="s">
         <v>69</v>
       </c>
@@ -2346,13 +2351,11 @@
       <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="42" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="35"/>
@@ -2364,9 +2367,13 @@
       <c r="J46" s="37"/>
     </row>
     <row r="47" spans="1:10" ht="15" thickBot="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="40" t="s">
+      <c r="A47" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="35"/>
@@ -2378,13 +2385,9 @@
       <c r="J47" s="37"/>
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1">
-      <c r="A48" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="42" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="35"/>
@@ -2396,9 +2399,13 @@
       <c r="J48" s="37"/>
     </row>
     <row r="49" spans="1:57" ht="15" thickBot="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="40" t="s">
+      <c r="A49" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="35"/>
@@ -2408,125 +2415,76 @@
       <c r="H49" s="36"/>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
-      <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
-      <c r="AU49" s="10"/>
-      <c r="AV49" s="10"/>
-      <c r="AW49" s="10"/>
-      <c r="AX49" s="10"/>
-      <c r="AY49" s="10"/>
-      <c r="AZ49" s="10"/>
-      <c r="BA49" s="10"/>
-      <c r="BB49" s="10"/>
-      <c r="BC49" s="10"/>
-      <c r="BD49" s="10"/>
-      <c r="BE49" s="10"/>
-    </row>
-    <row r="50" spans="1:57" s="9" customFormat="1" ht="15" thickBot="1">
-      <c r="A50" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="52"/>
+    </row>
+    <row r="50" spans="1:57" ht="15" thickBot="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="35"/>
+      <c r="E50" s="54"/>
       <c r="F50" s="37"/>
       <c r="G50" s="55"/>
       <c r="H50" s="36"/>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
-      <c r="AF50" s="11"/>
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="11"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="11"/>
-      <c r="AL50" s="11"/>
-      <c r="AM50" s="11"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="11"/>
-      <c r="AQ50" s="11"/>
-      <c r="AR50" s="11"/>
-      <c r="AS50" s="11"/>
-      <c r="AT50" s="11"/>
-      <c r="AU50" s="11"/>
-      <c r="AV50" s="11"/>
-      <c r="AW50" s="11"/>
-      <c r="AX50" s="11"/>
-      <c r="AY50" s="11"/>
-      <c r="AZ50" s="11"/>
-      <c r="BA50" s="11"/>
-      <c r="BB50" s="11"/>
-      <c r="BC50" s="11"/>
-      <c r="BD50" s="11"/>
-      <c r="BE50" s="11"/>
-    </row>
-    <row r="51" spans="1:57" s="9" customFormat="1">
-      <c r="A51" s="8" t="s">
+      <c r="K50" s="12"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="10"/>
+      <c r="AQ50" s="10"/>
+      <c r="AR50" s="10"/>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
+      <c r="AY50" s="10"/>
+      <c r="AZ50" s="10"/>
+      <c r="BA50" s="10"/>
+      <c r="BB50" s="10"/>
+      <c r="BC50" s="10"/>
+      <c r="BD50" s="10"/>
+      <c r="BE50" s="10"/>
+    </row>
+    <row r="51" spans="1:57" s="9" customFormat="1" ht="15" thickBot="1">
+      <c r="A51" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="38"/>
@@ -2535,7 +2493,7 @@
       <c r="G51" s="55"/>
       <c r="H51" s="36"/>
       <c r="I51" s="37"/>
-      <c r="J51" s="39"/>
+      <c r="J51" s="37"/>
       <c r="K51" s="13"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -2584,21 +2542,21 @@
       <c r="BD51" s="11"/>
       <c r="BE51" s="11"/>
     </row>
-    <row r="52" spans="1:57" s="9" customFormat="1" ht="15" thickBot="1">
+    <row r="52" spans="1:57" s="9" customFormat="1">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="28"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="52"/>
-      <c r="F52" s="39"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="55"/>
       <c r="H52" s="36"/>
       <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
+      <c r="J52" s="39"/>
       <c r="K52" s="13"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
@@ -2648,18 +2606,16 @@
       <c r="BE52" s="11"/>
     </row>
     <row r="53" spans="1:57" s="9" customFormat="1" ht="15" thickBot="1">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="37"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="39"/>
       <c r="G53" s="55"/>
       <c r="H53" s="36"/>
       <c r="I53" s="37"/>
@@ -2712,16 +2668,20 @@
       <c r="BD53" s="11"/>
       <c r="BE53" s="11"/>
     </row>
-    <row r="54" spans="1:57" s="9" customFormat="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="40" t="s">
+    <row r="54" spans="1:57" s="9" customFormat="1" ht="15" thickBot="1">
+      <c r="A54" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="35"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="58"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="55"/>
       <c r="H54" s="36"/>
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
@@ -2773,10 +2733,66 @@
       <c r="BD54" s="11"/>
       <c r="BE54" s="11"/>
     </row>
-    <row r="55" spans="1:57">
-      <c r="E55" s="15"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="16"/>
+    <row r="55" spans="1:57" s="9" customFormat="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="11"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="11"/>
+      <c r="AT55" s="11"/>
+      <c r="AU55" s="11"/>
+      <c r="AV55" s="11"/>
+      <c r="AW55" s="11"/>
+      <c r="AX55" s="11"/>
+      <c r="AY55" s="11"/>
+      <c r="AZ55" s="11"/>
+      <c r="BA55" s="11"/>
+      <c r="BB55" s="11"/>
+      <c r="BC55" s="11"/>
+      <c r="BD55" s="11"/>
+      <c r="BE55" s="11"/>
     </row>
     <row r="56" spans="1:57">
       <c r="E56" s="15"/>
@@ -2824,15 +2840,20 @@
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="5:7">
-      <c r="E65" s="17"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C11">
+  <conditionalFormatting sqref="C3:C12">
     <cfRule type="containsText" dxfId="53" priority="79" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",C3)))</formula>
     </cfRule>
@@ -2850,12 +2871,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="containsText" dxfId="51" priority="76" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="77" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C13)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="78">
       <colorScale>
@@ -2868,12 +2889,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C15">
+  <conditionalFormatting sqref="C14:C16">
     <cfRule type="containsText" dxfId="49" priority="73" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="74" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C14)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
       <colorScale>
@@ -2886,12 +2907,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C17">
     <cfRule type="containsText" dxfId="47" priority="70" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="71" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C17)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
       <colorScale>
@@ -2904,12 +2925,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="containsText" dxfId="45" priority="67" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="44" priority="68" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C18)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
       <colorScale>
@@ -2922,12 +2943,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C20">
     <cfRule type="containsText" dxfId="43" priority="64" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="65" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C20)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
       <colorScale>
@@ -2940,12 +2961,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28 C20:C23">
+  <conditionalFormatting sqref="C28:C29 C21:C24">
     <cfRule type="containsText" dxfId="41" priority="61" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="62" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C21)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="63">
       <colorScale>
@@ -2958,12 +2979,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="containsText" dxfId="39" priority="58" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="59" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C30)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -2976,12 +2997,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35">
+  <conditionalFormatting sqref="C33:C36">
     <cfRule type="containsText" dxfId="37" priority="55" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="56" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C33)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="57">
       <colorScale>
@@ -2994,12 +3015,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C38">
     <cfRule type="containsText" dxfId="35" priority="52" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C38)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
       <colorScale>
@@ -3012,12 +3033,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C39">
+  <conditionalFormatting sqref="C39:C40">
     <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="50" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C39)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="51">
       <colorScale>
@@ -3030,12 +3051,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="C41">
     <cfRule type="containsText" dxfId="31" priority="46" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C41)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
@@ -3048,12 +3069,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="C44">
     <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="44" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C44)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
       <colorScale>
@@ -3066,12 +3087,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="containsText" dxfId="27" priority="40" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="41" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C47)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
@@ -3084,12 +3105,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C49">
     <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="38" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C49)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="39">
       <colorScale>
@@ -3102,12 +3123,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C51">
     <cfRule type="containsText" dxfId="23" priority="34" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="35" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C51)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -3120,12 +3141,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C54">
     <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C54)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="33">
       <colorScale>
@@ -3138,12 +3159,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:C42">
+  <conditionalFormatting sqref="C42:C43">
     <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C42)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="27">
       <colorScale>
@@ -3156,12 +3177,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:C45">
+  <conditionalFormatting sqref="C45:C46">
     <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C45)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -3174,12 +3195,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C48">
     <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C48)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="21">
       <colorScale>
@@ -3192,12 +3213,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+  <conditionalFormatting sqref="C50">
     <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C50)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -3210,12 +3231,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C52)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
       <colorScale>
@@ -3228,12 +3249,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C55">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C55)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -3246,12 +3267,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31 C26 C36">
+  <conditionalFormatting sqref="C27 C32 C37">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C27)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -3264,12 +3285,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C53">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C53)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -3282,12 +3303,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24 C30">
+  <conditionalFormatting sqref="C31 C25">
     <cfRule type="containsText" dxfId="3" priority="88" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="89" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C25)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
       <colorScale>
@@ -3300,12 +3321,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C26">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",C26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",C26)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -3324,21 +3345,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010066F314D42E70FB4F962E325C4CCF27EF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d0c5eb7680b22b55b1b53511c5c4fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="282a6439-55bf-4e0c-8e7b-3c6254bfab40" xmlns:ns3="2154648b-c288-4c61-a630-f86fa10bab94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7837bdda419d93c8125662830abb78fc" ns2:_="" ns3:_="">
     <xsd:import namespace="282a6439-55bf-4e0c-8e7b-3c6254bfab40"/>
@@ -3549,8 +3555,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67AE964D-86EB-4C28-A8A3-FC7624F3579C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CE08D1E-5EE8-4CEB-B93B-F483F408096D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3558,5 +3579,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CE08D1E-5EE8-4CEB-B93B-F483F408096D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67AE964D-86EB-4C28-A8A3-FC7624F3579C}"/>
 </file>